--- a/cs4650projecthistory.xlsx
+++ b/cs4650projecthistory.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Epoch</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>Spicy-Acc</t>
+  </si>
+  <si>
+    <t>Lame-Loss</t>
+  </si>
+  <si>
+    <t>Lame-Acc</t>
   </si>
 </sst>
 </file>
@@ -134,11 +140,36 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1247367988"/>
-        <c:axId val="693748651"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln cmpd="sng" w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF9900"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'history(1)'!$A$1:$A$1000</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'history(1)'!$I$1:$I$1000</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1531825573"/>
+        <c:axId val="230075639"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1247367988"/>
+        <c:axId val="1531825573"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -170,10 +201,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693748651"/>
+        <c:crossAx val="230075639"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="693748651"/>
+        <c:axId val="230075639"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -221,7 +252,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1247367988"/>
+        <c:crossAx val="1531825573"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -299,11 +330,41 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="403783695"/>
-        <c:axId val="8721626"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'history(1)'!$J$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng" w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF9900"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'history(1)'!$A$2:$A$1000</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'history(1)'!$J$2:$J$1000</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="2147298606"/>
+        <c:axId val="1656427718"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="403783695"/>
+        <c:axId val="2147298606"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -335,10 +396,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8721626"/>
+        <c:crossAx val="1656427718"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8721626"/>
+        <c:axId val="1656427718"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -386,7 +447,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403783695"/>
+        <c:crossAx val="2147298606"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -479,6 +540,15 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -496,6 +566,15 @@
       <c r="F2" s="3">
         <v>0.564625870654372</v>
       </c>
+      <c r="H2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.724622023619221</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.706349222338388</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
@@ -513,6 +592,15 @@
       <c r="F3" s="3">
         <v>0.57082390686552</v>
       </c>
+      <c r="H3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.402097740654502</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.8881330541202</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
@@ -530,6 +618,15 @@
       <c r="F4" s="3">
         <v>0.598034791530124</v>
       </c>
+      <c r="H4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.514042259884529</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.730839016621345</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
@@ -547,6 +644,15 @@
       <c r="F5" s="3">
         <v>0.615268350755817</v>
       </c>
+      <c r="H5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.392176665173095</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.792894953475787</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
@@ -564,6 +670,15 @@
       <c r="F6" s="3">
         <v>0.636583547824634</v>
       </c>
+      <c r="H6" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.184855335883272</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.940589586515275</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
@@ -581,6 +696,15 @@
       <c r="F7" s="3">
         <v>0.654119455381856</v>
       </c>
+      <c r="H7" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.228492441976151</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.927210903546166</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
@@ -598,6 +722,15 @@
       <c r="F8" s="3">
         <v>0.66303857391924</v>
       </c>
+      <c r="H8" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.290920755875353</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.908390039813761</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
@@ -615,6 +748,15 @@
       <c r="F9" s="3">
         <v>0.661224512705186</v>
       </c>
+      <c r="H9" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.227341674244593</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.92736207649551</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
@@ -632,6 +774,15 @@
       <c r="F10" s="3">
         <v>0.671882110469195</v>
       </c>
+      <c r="H10" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.224042374138929</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.932426323804185</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
@@ -649,6 +800,15 @@
       <c r="F11" s="3">
         <v>0.711640236112806</v>
       </c>
+      <c r="H11" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.420622705903047</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.889795938181498</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
@@ -666,6 +826,15 @@
       <c r="F12" s="3">
         <v>0.758276668292324</v>
       </c>
+      <c r="H12" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.309453988019503</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.914436904048703</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
@@ -683,6 +852,15 @@
       <c r="F13" s="3">
         <v>0.555555563759641</v>
       </c>
+      <c r="H13" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.34268656430804</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.909221485007106</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
@@ -700,6 +878,15 @@
       <c r="F14" s="3">
         <v>0.568329569744685</v>
       </c>
+      <c r="H14" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.384645024445457</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.89931974159617</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
@@ -717,6 +904,15 @@
       <c r="F15" s="3">
         <v>0.629251722386634</v>
       </c>
+      <c r="H15" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.394372788801485</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.901587317644063</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
@@ -734,6 +930,15 @@
       <c r="F16" s="3">
         <v>0.737868504959439</v>
       </c>
+      <c r="H16" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.3969730840941</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.897808030105772</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
@@ -751,6 +956,15 @@
       <c r="F17" s="3">
         <v>0.74829934350217</v>
       </c>
+      <c r="H17" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.509588657564519</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.875888151214236</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
@@ -768,6 +982,15 @@
       <c r="F18" s="3">
         <v>0.622449001298199</v>
       </c>
+      <c r="H18" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.388739107248464</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.892592614091713</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
@@ -785,6 +1008,15 @@
       <c r="F19" s="3">
         <v>0.746938802339052</v>
       </c>
+      <c r="H19" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.424699963564201</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.898412719389208</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
@@ -802,6 +1034,15 @@
       <c r="F20" s="3">
         <v>0.753892693106009</v>
       </c>
+      <c r="H20" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.351859875226101</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.914134558960964</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
@@ -819,6 +1060,15 @@
       <c r="F21" s="3">
         <v>0.749659887381962</v>
       </c>
+      <c r="H21" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.533075130896858</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.886318994109052</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
@@ -836,6 +1086,15 @@
       <c r="F22" s="3">
         <v>0.761526864807622</v>
       </c>
+      <c r="H22" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.435317179408608</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.904157237779526</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
@@ -853,6 +1112,15 @@
       <c r="F23" s="3">
         <v>0.770370389909701</v>
       </c>
+      <c r="H23" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.555647186292103</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.886696919724514</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1">
@@ -870,6 +1138,15 @@
       <c r="F24" s="3">
         <v>0.773091482007854</v>
       </c>
+      <c r="H24" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.574631331586901</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.885336372208973</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1">
@@ -887,6 +1164,15 @@
       <c r="F25" s="3">
         <v>0.776114919166716</v>
       </c>
+      <c r="H25" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.547382978544213</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.891232068873857</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1">
@@ -903,6 +1189,15 @@
       </c>
       <c r="F26" s="3">
         <v>0.795842803578798</v>
+      </c>
+      <c r="H26" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.56825160051943</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.884278174782015</v>
       </c>
     </row>
     <row r="27">
